--- a/测试用例表.xlsx
+++ b/测试用例表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="入口&amp;用户" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="117">
   <si>
     <t>模块</t>
   </si>
@@ -233,6 +233,147 @@
   </si>
   <si>
     <t>#ORG-4</t>
+  </si>
+  <si>
+    <t>组织删除</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.访问组织列表页                            2.点击刚才创建的组织的“删除”链接                            3.刷新页面，检查组织是否已经删除    </t>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>#PROJECT-1</t>
+  </si>
+  <si>
+    <t>项目列表页</t>
+  </si>
+  <si>
+    <t>1.master账号登录</t>
+  </si>
+  <si>
+    <t>1.检查项目数据出现在列表中，检查项目名称，项目成员，日期是否存在                    2.点击项目链接，点击访问是否正常          3.检查项目成员链接是否正确</t>
+  </si>
+  <si>
+    <t>#PROJECT-2</t>
+  </si>
+  <si>
+    <t>项目新增</t>
+  </si>
+  <si>
+    <t>1.访问项目列表页                            2.点击“新增”按钮                            3.输入项目数据，点击保存，检查是否成功    4.访问项目列表页，检查是否出现刚才新增的项目</t>
+  </si>
+  <si>
+    <t>#PROJECT-3</t>
+  </si>
+  <si>
+    <t>项目编辑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.访问组织列表页                            2.点击刚才创建的项目的“链接                            3.进入项目主页，点击“设置”链接          4.在“项目信息”修改项目数据，点击保存，检查是否成功                                5.刷新页面，检查数据是否是刚刚修改的数据    </t>
+  </si>
+  <si>
+    <t>#PROJECT-4</t>
+  </si>
+  <si>
+    <t>项目管理页面</t>
+  </si>
+  <si>
+    <t>1.点击“管理”/“项目管理”,访问项目管理页                                    2.检查所有项目是否存在，检查“编辑”，“名称”链接是否可正确访问                            3.检查“新增”按钮链接是否可用</t>
+  </si>
+  <si>
+    <t>#PROJECT-5</t>
+  </si>
+  <si>
+    <t>项目管理-删除</t>
+  </si>
+  <si>
+    <t>1.点击“管理”/“项目管理”,访问项目管理页                                    2.点击刚才创建项目的“删除”链接        3.刷新页面后检查项目已经不存在</t>
+  </si>
+  <si>
+    <t>#PROJECT-6</t>
+  </si>
+  <si>
+    <t>项目管理-归档</t>
+  </si>
+  <si>
+    <t>1.点击“管理”/“项目管理”,访问项目管理页                                    2.点击刚才创建项目的“归档”链接        3.刷新页面后检查项目已经不存在             4.点击左侧的“已归档项目”链接，检查刚才的项目是否出现                             5.点击“恢复”链接，然后回到“项目管理页”，检查是否恢复</t>
+  </si>
+  <si>
+    <t>#PROJECT-7</t>
+  </si>
+  <si>
+    <t>项目管理-克隆</t>
+  </si>
+  <si>
+    <t>1.点击“管理”/“项目管理”,访问项目管理页                                    2.点击刚才创建项目的“克隆”链接        3.刷新页面后检查克隆后的项目是否存在             4.点击左克隆后链接，检查刚才的项目数据（设置）是否克隆成功                    5.最后删除项目</t>
+  </si>
+  <si>
+    <t>管理</t>
+  </si>
+  <si>
+    <t>#ADMIN-1</t>
+  </si>
+  <si>
+    <t>服务信息页</t>
+  </si>
+  <si>
+    <t>1.检查服务信息的各项数据否存在                    2.</t>
+  </si>
+  <si>
+    <t>#ADMIN-2</t>
+  </si>
+  <si>
+    <t>系统设置-基本设置</t>
+  </si>
+  <si>
+    <t>1.访问基本设置页                            2.修改所有的配置项，检查是否更新成功                            3.还原所有设置                         4.单独修改某一个设置，检查是否真正的生效，如“运行用户注册”，“登录时需要验证码”，“是否启用”等</t>
+  </si>
+  <si>
+    <t>#ADMIN-3</t>
+  </si>
+  <si>
+    <t>系统设置-时间设置</t>
+  </si>
+  <si>
+    <t>1.访问时间设置页                            2.修改所有的配置项，检查是否更新成功                            3.还原所有设置                         4.单独修改某一个设置，检查是否真正的生效，如“完整日期/时间格式”</t>
+  </si>
+  <si>
+    <t>#ADMIN-4</t>
+  </si>
+  <si>
+    <t>系统设置-附件设置</t>
+  </si>
+  <si>
+    <t>1.访问附件设置页                            2.修改所有的配置项，检查是否更新成功                            3.还原所有设置                         4.单独修改某一个设置，检查是否真正的生效，如“附件大小”</t>
+  </si>
+  <si>
+    <t>#ADMIN-5</t>
+  </si>
+  <si>
+    <t>系统设置-用户默认设置</t>
+  </si>
+  <si>
+    <t>1.访问用户默认设置页                            2.修改所有的配置项，检查是否更新成功                            3.还原所有设置                         4.单独修改某一个设置，检查是否真正的生效，如“项目首页”，“页面布局”</t>
+  </si>
+  <si>
+    <t>#ADMIN-6</t>
+  </si>
+  <si>
+    <t>系统设置-公告栏</t>
+  </si>
+  <si>
+    <t>1.访问公告栏页                            2.设置公告内容，设置时间，然后发布                            3.以其他用户身份登录，检查是否收到公告                         4.禁用公告，检查公告是否已经取消</t>
+  </si>
+  <si>
+    <t>#ADMIN-7</t>
+  </si>
+  <si>
+    <t>项目管理-全局权限角色</t>
+  </si>
+  <si>
+    <t>1.访问全局权限角色页                            2.设置公告内容，设置时间，然后发布                            3.以其他用户身份登录，检查是否收到公告                         4.禁用公告，检查公告是否已经取消</t>
   </si>
 </sst>
 </file>
@@ -264,29 +405,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,48 +441,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,6 +500,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -421,6 +562,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -445,25 +610,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,97 +718,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,6 +814,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -701,60 +886,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -763,137 +904,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -901,11 +1042,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -914,6 +1058,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1272,7 +1419,7 @@
   <sheetPr/>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1288,36 +1435,36 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="44" customHeight="1" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1326,61 +1473,61 @@
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A3" s="4"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="115" customHeight="1" spans="1:5">
-      <c r="A4" s="4"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="115" customHeight="1" spans="1:5">
-      <c r="A5" s="4"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="115" customHeight="1" spans="1:5">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1389,15 +1536,15 @@
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="100" customHeight="1" spans="1:5">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1406,15 +1553,15 @@
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="100" customHeight="1" spans="1:5">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1423,15 +1570,15 @@
       <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="100" customHeight="1" spans="1:5">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1440,15 +1587,15 @@
       <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="100" customHeight="1" spans="1:5">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1457,15 +1604,15 @@
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="100" customHeight="1" spans="1:5">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1474,15 +1621,15 @@
       <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="100" customHeight="1" spans="1:5">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1491,15 +1638,15 @@
       <c r="C12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="100" customHeight="1" spans="1:5">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1508,15 +1655,15 @@
       <c r="C13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="100" customHeight="1" spans="1:5">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1525,15 +1672,15 @@
       <c r="C14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="126" customHeight="1" spans="1:5">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1542,15 +1689,15 @@
       <c r="C15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="126" customHeight="1" spans="1:5">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1559,15 +1706,15 @@
       <c r="C16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="126" customHeight="1" spans="1:5">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1576,15 +1723,15 @@
       <c r="C17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="126" customHeight="1" spans="1:5">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1593,10 +1740,10 @@
       <c r="C18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1609,14 +1756,178 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="14.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="39.5" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="88" customHeight="1" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="131" customHeight="1" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="131" customHeight="1" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="131" customHeight="1" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="131" customHeight="1" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="131" customHeight="1" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="131" customHeight="1" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1628,7 +1939,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1642,36 +1953,36 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="44" customHeight="1" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1680,16 +1991,16 @@
       <c r="C2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="131" customHeight="1" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1698,16 +2009,16 @@
       <c r="C3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="131" customHeight="1" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1716,38 +2027,36 @@
       <c r="C4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="131" customHeight="1" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="115" customHeight="1" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1758,14 +2067,178 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="14.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="39.5" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="44" customHeight="1" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="131" customHeight="1" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="131" customHeight="1" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="131" customHeight="1" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="131" customHeight="1" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="131" customHeight="1" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="131" customHeight="1" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
